--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer/Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer/Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article répertorie les liens vers des articles relatifs à la pandémie de Covid-19 en cours dans les territoires britanniques d'outre-mer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sainte-Hélène, Ascension et Tristan da Cunha</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Akrotiri et Dhekelia
 Territoire britannique de l'océan Indien</t>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Amérique du Nord</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anguilla
 Bermudes
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Amérique du Sud</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Îles Malouines</t>
         </is>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Akrotiri et Dhekelia
 Territoire britannique de l'océan Indien</t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Europe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gibraltar</t>
         </is>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_dans_les_territoires_britanniques_d%27outre-mer</t>
+          <t>Pandémie_de_Covid-19_dans_les_territoires_britanniques_d'outre-mer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,6 +723,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
